--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no se puede hacer coincidir con un nodo.</t>
+          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no puede coincidir con un nodo.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de selección de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
+          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pod en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para requisitos detallados.</t>
+          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones en grupos de nodos dedicados en función de requisitos específicos.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Las aplicaciones pueden compartir la misma configuración y necesitar máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir el tráfico de salida confiable a escala.</t>
+          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry desde Azure Kubernetes Service.</t>
+          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1503,7 +1503,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos IP autorizados por el servidor de API.</t>
+          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el servidor de API con Microsoft Entra RBAC.</t>
+          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se está ejecutando en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1639,7 +1639,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: acceso seguro de los contenedores a los recursos.</t>
+          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
+          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar un gasto innecesario, mientras que la elección de una instancia potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
+          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de una manera que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
+          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Reducir verticalmente automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando la demanda vuelve.</t>
+          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: usa el escalador automático de pods horizontal.</t>
+          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el número de pods de una implementación en función de la utilización de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
+          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2110,7 +2110,7 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalador automático de pods vertical (versión preliminar).</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese para obtener una reserva de Azure o un plan de ahorro para reducir aún más los costos de recursos.</t>
+          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2246,7 +2246,7 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura del clúster: configure la supervisión del clúster con Container Insights.</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
@@ -2314,12 +2314,12 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: revise la documentación de procedimientos recomendados de AKS.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multitenencia y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2347,7 +2347,7 @@
       <c r="B46" s="21" t="n"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: revise Azure Chaos Studio.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
+          <t>Arquitectura de carga de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
@@ -2481,7 +2481,7 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se está ejecutando en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en su proceso de ingeniería de versiones.</t>
+          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes y los controladores de entrada admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones canary.</t>
+          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz y rentable.</t>
+          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
         </is>
       </c>
       <c r="E55" s="21" t="n"/>
@@ -2716,7 +2716,7 @@
       <c r="B57" s="21" t="n"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use las características del programador avanzado de AKS.</t>
+          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura de clúster: use zonas de disponibilidad para maximizar la resistencia dentro de una región de Azure mediante la distribución de nodos de agente de AKS en centros de datos físicamente independientes.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Container Insights ayuda a supervisar el estado y el rendimiento de los controladores, nodos y contenedores que están disponibles en Kubernetes a través de la API de métricas. La integración con Prometheus permite la recopilación de métricas de aplicaciones y cargas de trabajo.</t>
+          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use zonas de disponibilidad para maximizar la resistencia dentro de una región de Azure mediante la distribución de nodos de agente de AKS en centros de datos físicamente independientes.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
+          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
+          <t>Los límites de recursos de memoria y CPU del contenedor son necesarios para evitar el agotamiento de recursos en el clúster de Kubernetes.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: mantenga el grupo de nodos del sistema aislado de las cargas de trabajo de las aplicaciones.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Los límites de recursos de memoria y CPU del contenedor son necesarios para evitar el agotamiento de recursos en el clúster de Kubernetes.</t>
+          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
+          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: mantenga el grupo de nodos del sistema aislado de las cargas de trabajo de las aplicaciones.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
+          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
+          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
+          <t>Arquitectura de clúster: utilice una puerta de enlace NAT para clústeres que ejecutan cargas de trabajo que realizan muchas conexiones salientes simultáneas.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
+          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: utilice una puerta de enlace NAT para clústeres que ejecutan cargas de trabajo que realizan muchas conexiones salientes simultáneas.</t>
+          <t>Arquitectura de clúster: use la integración de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
+          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades. Cualquier cambio en el estado de la cuenta de usuario o del grupo se actualiza automáticamente en el acceso al clúster de AKS. Los desarrolladores y propietarios de aplicaciones de su clúster de Kubernetes necesitan acceso a diferentes recursos.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
+          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use la integración de Microsoft Entra.</t>
+          <t>Arquitectura de clúster: autentique con el identificador de Microsoft Entra en Azure Container Registry.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades. Cualquier cambio en el estado de la cuenta de usuario o del grupo se actualiza automáticamente en el acceso al clúster de AKS. Los desarrolladores y propietarios de aplicaciones de su clúster de Kubernetes necesitan acceso a diferentes recursos.</t>
+          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
+          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: autentique con el identificador de Microsoft Entra en Azure Container Registry.</t>
+          <t>Arquitectura de clúster: proteja el tráfico de red al servidor de API con un clúster de AKS privado.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
+          <t>De forma predeterminada, el tráfico de red entre los grupos de nodos y el servidor de API viaja por la red troncal de Microsoft; mediante el uso de un clúster privado, puede asegurarse de que el tráfico de red al servidor de API permanezca solo en la red privada.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
+          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el tráfico de red al servidor de API con un clúster de AKS privado.</t>
+          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, el tráfico de red entre los grupos de nodos y el servidor de API viaja por la red troncal de Microsoft; mediante el uso de un clúster privado, puede asegurarse de que el tráfico de red al servidor de API permanezca solo en la red privada.</t>
+          <t>Al utilizar clústeres públicos, aún puede limitar el tráfico que puede llegar al servidor de API de clústeres mediante la característica de rango de IP autorizado. Incluya orígenes como las direcciones IP públicas de los agentes de compilación de implementación, la administración de operaciones y el punto de salida de los grupos de nodos (como Azure Firewall).</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
+          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
+          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Al utilizar clústeres públicos, aún puede limitar el tráfico que puede llegar al servidor de API de clústeres mediante la característica de rango de IP autorizado. Incluya orígenes como las direcciones IP públicas de los agentes de compilación de implementación, la administración de operaciones y el punto de salida de los grupos de nodos (como Azure Firewall).</t>
+          <t>Proteger el acceso al servidor de API de Kubernetes es una de las cosas más importantes que puede hacer para proteger su clúster. Integre el control de acceso basado en roles (RBAC) de Kubernetes con el ID de Microsoft Entra para controlar el acceso al servidor de API. Deshabilite las cuentas locales para aplicar todo el acceso al clúster mediante identidades basadas en el identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
+          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
+          <t>Arquitectura de clúster: use directivas de red de Azure o Calico.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Proteger el acceso al servidor de API de Kubernetes es una de las cosas más importantes que puede hacer para proteger su clúster. Integre el control de acceso basado en roles (RBAC) de Kubernetes con el ID de Microsoft Entra para controlar el acceso al servidor de API. Deshabilite las cuentas locales para aplicar todo el acceso al clúster mediante identidades basadas en el identificador de Microsoft Entra.</t>
+          <t>Proteja y controle el tráfico de red entre los pods de un clúster.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
+          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use directivas de red de Azure o Calico.</t>
+          <t>Arquitectura de clústeres: proteja clústeres y pods con Azure Policy.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Proteja y controle el tráfico de red entre los pods de un clúster.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
+          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: proteja clústeres y pods con Azure Policy.</t>
+          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
+          <t>Limite el acceso a las acciones que pueden realizar los contenedores. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada con privilegios.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
+          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
+          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Limite el acceso a las acciones que pueden realizar los contenedores. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada con privilegios.</t>
+          <t>Para examinar el tráfico entrante en busca de posibles ataques, use un firewall de aplicaciones web como Azure Web Application Firewall (WAF) en Azure Application Gateway o Azure Front Door.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
+          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
+          <t>Arquitectura de clúster: controle el tráfico de salida del clúster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Para examinar el tráfico entrante en busca de posibles ataques, use un firewall de aplicaciones web como Azure Web Application Firewall (WAF) en Azure Application Gateway o Azure Front Door.</t>
+          <t>Asegúrese de que el tráfico de salida del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
+          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: controle el tráfico de salida del clúster.</t>
+          <t>Arquitectura de clúster: use el identificador de carga de trabajo de Microsoft Entra de código abierto y el controlador CSI del almacén de secretos con Azure Key Vault.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que el tráfico de salida del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
+          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
+          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use el identificador de carga de trabajo de Microsoft Entra de código abierto y el controlador CSI del almacén de secretos con Azure Key Vault.</t>
+          <t>Arquitectura de clúster: use Microsoft Defender para contenedores.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
+          <t>Supervise y mantenga la seguridad de sus clústeres, contenedores y sus aplicaciones.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
+          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use Microsoft Defender para contenedores.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: alinee la selección de SKU y el tamaño del disco administrado con los requisitos de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Supervise y mantenga la seguridad de sus clústeres, contenedores y sus aplicaciones.</t>
+          <t>Hacer coincidir su selección con las demandas de su carga de trabajo garantiza que no pague por recursos innecesarios.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
+          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: alinee la selección de SKU y el tamaño del disco administrado con los requisitos de la carga de trabajo.</t>
+          <t>Arquitectura de clúster: seleccione el tipo de instancia de máquina virtual adecuado.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Hacer coincidir su selección con las demandas de su carga de trabajo garantiza que no pague por recursos innecesarios.</t>
+          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
+          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione el tipo de instancia de máquina virtual adecuado.</t>
+          <t>Arquitectura de clúster: seleccione máquinas virtuales en función de la arquitectura de Arm.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
+          <t>AKS admite la creación de nodos de agente ARM64 de Ubuntu, así como una combinación de nodos de arquitectura Intel y ARM dentro de un clúster que puede ofrecer un mejor rendimiento a un costo menor.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
+          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione máquinas virtuales en función de la arquitectura de Arm.</t>
+          <t>Arquitectura de clúster: seleccione Azure Spot Virtual Machines.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>AKS admite la creación de nodos de agente ARM64 de Ubuntu, así como una combinación de nodos de arquitectura Intel y ARM dentro de un clúster que puede ofrecer un mejor rendimiento a un costo menor.</t>
+          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta un 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
+          <t>15372689-94ad-4247-a157-fde418217ce4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione Azure Spot Virtual Machines.</t>
+          <t>Arquitectura de clúster: seleccione la región adecuada.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta un 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
+          <t>Debido a muchos factores, el costo de los recursos varía según la región de Azure. Evalúe el costo, la latencia y los requisitos de cumplimiento para asegurarse de que está ejecutando su carga de trabajo de manera rentable y que no afecta a sus usuarios finales ni genera cargos de red adicionales.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>15372689-94ad-4247-a157-fde418217ce4</t>
+          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione la región adecuada.</t>
+          <t>Arquitectura de carga de trabajo: Mantenga imágenes pequeñas y optimizadas.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Debido a muchos factores, el costo de los recursos varía según la región de Azure. Evalúe el costo, la latencia y los requisitos de cumplimiento para asegurarse de que está ejecutando su carga de trabajo de manera rentable y que no afecta a sus usuarios finales ni genera cargos de red adicionales.</t>
+          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
+          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: Mantenga imágenes pequeñas y optimizadas.</t>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para reducir automáticamente el número de nodos de agente en respuesta al exceso de capacidad de recursos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
+          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
+          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para reducir automáticamente el número de nodos de agente en respuesta al exceso de capacidad de recursos.</t>
+          <t>Arquitectura de clúster: habilite el aprovisionamiento automático de nodos para automatizar la selección de SKU de máquina virtual.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
+          <t>El aprovisionamiento automático de nodos simplifica el proceso de selección de SKU y decide, en función de los requisitos de recursos de pod pendientes, la configuración óptima de la máquina virtual para ejecutar cargas de trabajo de la manera más eficiente y rentable.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
+          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el aprovisionamiento automático de nodos para automatizar la selección de SKU de máquina virtual.</t>
+          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>El aprovisionamiento automático de nodos simplifica el proceso de selección de SKU y decide, en función de los requisitos de recursos de pod pendientes, la configuración óptima de la máquina virtual para ejecutar cargas de trabajo de la manera más eficiente y rentable.</t>
+          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
+          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
+          <t>Ajusta el tamaño de tus pods y establece dinámicamente solicitudes y límites en función del uso histórico.</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2097,7 +2097,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
+          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
+          <t>Arquitectura de carga de trabajo: use el escalado automático basado en eventos (KEDA) de Kubernetes.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Ajusta el tamaño de tus pods y establece dinámicamente solicitudes y límites en función del uso histórico.</t>
+          <t>Escala en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2131,7 +2131,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
+          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalado automático basado en eventos (KEDA) de Kubernetes.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: adopte una disciplina financiera y una práctica cultural en la nube para impulsar la propiedad del uso de la nube.</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Escala en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
+          <t>La base para permitir la optimización de costos es la difusión de un clúster de ahorro de costos. Un enfoque de operaciones financieras (FinOps) se utiliza a menudo para ayudar a las organizaciones a reducir los costos de la nube. Se trata de una práctica que implica la colaboración entre los equipos de finanzas, operaciones e ingeniería para impulsar la alineación de los objetivos de ahorro de costes y aportar transparencia a los costes de la nube.</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2165,7 +2165,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
+          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2178,12 +2178,12 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: adopte una disciplina financiera y una práctica cultural en la nube para impulsar la propiedad del uso de la nube.</t>
+          <t>Arquitectura de clúster: regístrese en Azure Reservations o Azure Savings Plan.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>La base para permitir la optimización de costos es la difusión de un clúster de ahorro de costos. Un enfoque de operaciones financieras (FinOps) se utiliza a menudo para ayudar a las organizaciones a reducir los costos de la nube. Se trata de una práctica que implica la colaboración entre los equipos de finanzas, operaciones e ingeniería para impulsar la alineación de los objetivos de ahorro de costes y aportar transparencia a los costes de la nube.</t>
+          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
         </is>
       </c>
       <c r="E41" s="21" t="n"/>
@@ -2199,7 +2199,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
+          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2212,12 +2212,12 @@
       <c r="B42" s="21" t="n"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: regístrese en Azure Reservations o Azure Savings Plan.</t>
+          <t>Arquitectura de clúster: configure el complemento Análisis de costos de AKS.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
+          <t>La extensión de clúster de análisis de costos le permite obtener información detallada sobre los costos asociados con varios recursos de Kubernetes en sus clústeres o espacios de nombres.</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
+          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2246,12 +2246,12 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura del clúster: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>La ayuda de Container Insights proporciona información procesable sobre los recursos inactivos y no asignados de los clústeres. Container Insights también admite la recopilación de métricas de Prometheus y se integra con Azure Managed Grafana para obtener una vista holística de la aplicación y la infraestructura.</t>
+          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2267,7 +2267,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>f4113186-82e7-495e-90e8-0da553de3039</t>
+          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2280,12 +2280,12 @@
       <c r="B44" s="21" t="n"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: configure el complemento Análisis de costos de AKS.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>La extensión de clúster de análisis de costos le permite obtener información detallada sobre los costos asociados con varios recursos de Kubernetes en sus clústeres o espacios de nombres.</t>
+          <t>Azure Chaos Studio puede ayudar a simular errores y desencadenar situaciones de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E44" s="21" t="n"/>
@@ -2301,7 +2301,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
+          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2314,12 +2314,12 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2334,7 +2334,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2347,12 +2347,12 @@
       <c r="B46" s="21" t="n"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
+          <t>Arquitectura de clústeres: ponga en funcionamiento los estándares de configuración de clústeres y pods con Azure Policy.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Azure Chaos Studio puede ayudar a simular errores y desencadenar situaciones de recuperación ante desastres.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2368,7 +2368,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
+          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2381,12 +2381,12 @@
       <c r="B47" s="21" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Container Insights ayuda a supervisar el rendimiento de los contenedores mediante la recopilación de métricas de memoria y procesador de controladores, nodos y contenedores que están disponibles en Kubernetes a través de la API de métricas y los registros de contenedores.</t>
+          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2415,12 +2415,12 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: para cargas de trabajo críticas, utilice implementaciones azul/verde a nivel de sello.</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Configure Application Insights para la supervisión basada en código de las aplicaciones que se ejecutan en un clúster de AKS.</t>
+          <t>Automatice sus áreas de diseño de misión crítica, incluidas la implementación y las pruebas.</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
@@ -2435,7 +2435,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>b7c8f991-0c99-4f2e-8ed9-1b0bcffc2b42</t>
+          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2448,12 +2448,12 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: configure el raspado de métricas de Prometheus con Container Insights.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: desarrolle un plan de capacidad detallado y revíselo y reviselo continuamente.</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Container Insights, que forman parte de Azure Monitor, proporciona una experiencia de incorporación fluida para recopilar métricas de Prometheus. Consulte Configurar el raspado de métricas de Prometheus para obtener más información.</t>
+          <t>Después de formalizar el plan de capacidad, debe actualizarse con frecuencia mediante la observación continua de la utilización de recursos del clúster.</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2468,7 +2468,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>959a2059-d560-4f51-8f9a-c68b0a595beb</t>
+          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2481,12 +2481,12 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en respuesta a las restricciones de recursos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
+          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2502,7 +2502,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2515,12 +2515,12 @@
       <c r="B51" s="21" t="n"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: ponga en funcionamiento los estándares de configuración de clústeres y pods con Azure Policy.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos y considere la posibilidad de escalar los grupos de nodos de usuario.</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
+          <t>A diferencia de los grupos de nodos del sistema que siempre requieren nodos en ejecución, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
+          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
+          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
+          <t>Ayuda a controlar el equilibrio de los recursos para las cargas de trabajo que los requieren.</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2570,7 +2570,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
+          <t>e452f566-2a10-4119-a802-aeab44201971</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2583,12 +2583,12 @@
       <c r="B53" s="21" t="n"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: para cargas de trabajo críticas, utilice implementaciones azul/verde a nivel de sello.</t>
+          <t>Arquitectura de carga de trabajo: utilice métricas significativas de escalado de carga de trabajo.</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>Automatice sus áreas de diseño de misión crítica, incluidas la implementación y las pruebas.</t>
+          <t>No todas las decisiones de escala se pueden derivar de las métricas de CPU o memoria. A menudo, las consideraciones de escala provendrán de puntos de datos más complejos o incluso externos. Utilice KEDA para crear un conjunto de reglas de escalado automático significativo basado en señales específicas de su carga de trabajo.</t>
         </is>
       </c>
       <c r="E53" s="21" t="n"/>
@@ -2603,7 +2603,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
+          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2614,32 +2614,15 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="n"/>
       <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: desarrolle un plan de capacidad detallado y revíselo y reviselo continuamente.</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>Después de formalizar el plan de capacidad, debe actualizarse con frecuencia mediante la observación continua de la utilización de recursos del clúster.</t>
-        </is>
-      </c>
+      <c r="C54" s="21" t="n"/>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="n"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
@@ -2648,31 +2631,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="n"/>
       <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en respuesta a las restricciones de recursos.</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
-        </is>
-      </c>
+      <c r="C55" s="21" t="n"/>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="n"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
@@ -2681,31 +2647,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="n"/>
       <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos y considere la posibilidad de escalar los grupos de nodos de usuario.</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>A diferencia de los grupos de nodos del sistema que siempre requieren nodos en ejecución, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
-        </is>
-      </c>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="n"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
@@ -2714,31 +2663,14 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="n"/>
       <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>Ayuda a controlar el equilibrio de los recursos para las cargas de trabajo que los requieren.</t>
-        </is>
-      </c>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="n"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>e452f566-2a10-4119-a802-aeab44201971</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
@@ -2747,31 +2679,14 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="n"/>
       <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>Arquitectura de carga de trabajo: utilice métricas significativas de escalado de carga de trabajo.</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>No todas las decisiones de escala se pueden derivar de las métricas de CPU o memoria. A menudo, las consideraciones de escala provendrán de puntos de datos más complejos o incluso externos. Utilice KEDA para crear un conjunto de reglas de escalado automático significativo basado en señales específicas de su carga de trabajo.</t>
-        </is>
-      </c>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="n"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
@@ -6674,7 +6589,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.es.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no puede coincidir con un nodo.</t>
+          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidente se pueden programar en nodos etiquetados, lo que permite que los recursos no utilizados de los nodos se consuman, pero da prioridad a los pods que definen el selector de nodos coincidente. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no se puede hacer coincidir con un nodo.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1197,7 +1197,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pod en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones en grupos de nodos dedicados en función de requisitos específicos.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+          <t>Las aplicaciones pueden compartir la misma configuración y necesitar máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
+          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use los intervalos IP autorizados por el servidor de API.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: proteja clústeres y pods con Azure Policy.</t>
+          <t>Arquitectura de clústeres: proteja los clústeres y los pods con Azure Policy.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se ejecuta en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que el tráfico de salida del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
+          <t>Asegúrese de que el tráfico saliente del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
+          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
+          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin la utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta un 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
+          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta el 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
+          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un aprovisionamiento excesivo.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
+          <t>La reducción vertical automática del número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando se recupera la demanda.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods horizontal.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
+          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admiten operaciones de reducción horizontal de clústeres.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods vertical (versión preliminar).</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Ajusta el tamaño de tus pods y establece dinámicamente solicitudes y límites en función del uso histórico.</t>
+          <t>Ajusta el tamaño de tus pods y establece dinámicamente las solicitudes y los límites en función del uso histórico.</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalado automático basado en eventos (KEDA) de Kubernetes.</t>
+          <t>Arquitectura de carga de trabajo: use el escalado automático controlado por eventos (KEDA) de Kubernetes.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Escala en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
+          <t>Escale en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay consideraciones clave que se deben comprender e implementar. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2280,7 +2280,7 @@
       <c r="B44" s="21" t="n"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: revise Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
@@ -2314,7 +2314,7 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se ejecuta en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
+          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Considere patrones como las implementaciones azul-verde o las versiones canary.</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
+          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz y rentable.</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>A diferencia de los grupos de nodos del sistema que siempre requieren nodos en ejecución, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
+          <t>A diferencia de los grupos de nodos del sistema que siempre requieren la ejecución de nodos, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
